--- a/productos.xlsx
+++ b/productos.xlsx
@@ -4,10 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario" sheetId="1" r:id="rId4"/>
+    <sheet name="Cerveza" sheetId="2" r:id="rId5"/>
+    <sheet name="Vinos" sheetId="3" r:id="rId6"/>
+    <sheet name="Destilados" sheetId="4" r:id="rId7"/>
+    <sheet name="Abarrotes" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
   <si>
     <t>Nombre</t>
   </si>
@@ -29,10 +33,382 @@
     <t>Precio</t>
   </si>
   <si>
-    <t>Escudo Silver</t>
-  </si>
-  <si>
-    <t>330cc</t>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>120 cavernet sauvignon</t>
+  </si>
+  <si>
+    <t>2L</t>
+  </si>
+  <si>
+    <t>botella</t>
+  </si>
+  <si>
+    <t>120 Merlot</t>
+  </si>
+  <si>
+    <t>120 Carmenere</t>
+  </si>
+  <si>
+    <t>1.5L</t>
+  </si>
+  <si>
+    <t>120 Syrah</t>
+  </si>
+  <si>
+    <t>120 Dulce</t>
+  </si>
+  <si>
+    <t>120 blanco</t>
+  </si>
+  <si>
+    <t>700ml</t>
+  </si>
+  <si>
+    <t>exportacion cavernet sauvignon</t>
+  </si>
+  <si>
+    <t>exportacion merlot</t>
+  </si>
+  <si>
+    <t>exportacion reservado merlot</t>
+  </si>
+  <si>
+    <t>exportacion dulce frutilla tinto</t>
+  </si>
+  <si>
+    <t>exportacion dulce melon blanco</t>
+  </si>
+  <si>
+    <t>exportaacion dulce frutilla naranja</t>
+  </si>
+  <si>
+    <t>exportacion blanco dulce</t>
+  </si>
+  <si>
+    <t>Gato cavernet</t>
+  </si>
+  <si>
+    <t>Gato merlot</t>
+  </si>
+  <si>
+    <t>Gato Dulce tinto (seleccion)</t>
+  </si>
+  <si>
+    <t>Gato borgoño frutilla</t>
+  </si>
+  <si>
+    <t>Gato seleccion dulce rose</t>
+  </si>
+  <si>
+    <t>Gato blanco chirimoya</t>
+  </si>
+  <si>
+    <t>Gato Blanco</t>
+  </si>
+  <si>
+    <t>Gato seleccion dulce</t>
+  </si>
+  <si>
+    <t>Gato Rose</t>
+  </si>
+  <si>
+    <t>Camino de chile dulce tinto</t>
+  </si>
+  <si>
+    <t>Camino de chile dulce blanco</t>
+  </si>
+  <si>
+    <t>Casillero del diablo merlot</t>
+  </si>
+  <si>
+    <t>750ml</t>
+  </si>
+  <si>
+    <t>Casillero del diablo cavernet</t>
+  </si>
+  <si>
+    <t>Casillero del diablo camenere</t>
+  </si>
+  <si>
+    <t>Casillero cabernet reserva</t>
+  </si>
+  <si>
+    <t>Diablo Red</t>
+  </si>
+  <si>
+    <t>Diablo merlot</t>
+  </si>
+  <si>
+    <t>Diablo Cabernet</t>
+  </si>
+  <si>
+    <t>Oveja negra cabernet S</t>
+  </si>
+  <si>
+    <t>Oveja negra carmenere</t>
+  </si>
+  <si>
+    <t>Mulas carmenere</t>
+  </si>
+  <si>
+    <t>Mulas merlot</t>
+  </si>
+  <si>
+    <t>Toro de piedra carmenere</t>
+  </si>
+  <si>
+    <t>Toro de piedra merlot</t>
+  </si>
+  <si>
+    <t>toro de piedra cabernet</t>
+  </si>
+  <si>
+    <t>Misiones R cabernet medium</t>
+  </si>
+  <si>
+    <t>Misiones R reserva cabernet</t>
+  </si>
+  <si>
+    <t>Misiones R reserva carmenere</t>
+  </si>
+  <si>
+    <t>Misiones R merlot</t>
+  </si>
+  <si>
+    <t>Misiones R carmenere</t>
+  </si>
+  <si>
+    <t>Misiones R late harvest</t>
+  </si>
+  <si>
+    <t>Misiones R Rose harvest</t>
+  </si>
+  <si>
+    <t>Santa Helena Rose</t>
+  </si>
+  <si>
+    <t>caja</t>
+  </si>
+  <si>
+    <t>Santa Helena Tinto</t>
+  </si>
+  <si>
+    <t>1L</t>
+  </si>
+  <si>
+    <t>Santa Helena Blanco</t>
+  </si>
+  <si>
+    <t>500ml</t>
+  </si>
+  <si>
+    <t>Exportacion Tinto</t>
+  </si>
+  <si>
+    <t>Esportacion Blanco</t>
+  </si>
+  <si>
+    <t>Exportacion Blanco</t>
+  </si>
+  <si>
+    <t>Clos de pirque Tinto</t>
+  </si>
+  <si>
+    <t>Clos de pirque blanco</t>
+  </si>
+  <si>
+    <t>Grosso Cooler frutilla</t>
+  </si>
+  <si>
+    <t>Grosso cooler piña</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Aperol</t>
+  </si>
+  <si>
+    <t>Bombay sappheire</t>
+  </si>
+  <si>
+    <t>Merendero</t>
+  </si>
+  <si>
+    <t>Eristof blanco</t>
+  </si>
+  <si>
+    <t>Eristof Negro</t>
+  </si>
+  <si>
+    <t>Vodka.PL pera</t>
+  </si>
+  <si>
+    <t>Vodka Sky stra</t>
+  </si>
+  <si>
+    <t>Coñac 3 palos</t>
+  </si>
+  <si>
+    <t>Agua ardiente doñihue</t>
+  </si>
+  <si>
+    <t>900ml</t>
+  </si>
+  <si>
+    <t>Violento</t>
+  </si>
+  <si>
+    <t>225ml</t>
+  </si>
+  <si>
+    <t>Bou barrueta Maria's</t>
+  </si>
+  <si>
+    <t>Bou barrueta Romanet</t>
+  </si>
+  <si>
+    <t>Bou barrueta Mis nietas</t>
+  </si>
+  <si>
+    <t>Los nichos 40°</t>
+  </si>
+  <si>
+    <t>Los nichos 35°</t>
+  </si>
+  <si>
+    <t>Alto del carnen reserva blanco</t>
+  </si>
+  <si>
+    <t>Alto del carmen etiqueta negra</t>
+  </si>
+  <si>
+    <t>Alto del carmen</t>
+  </si>
+  <si>
+    <t>3R 40°</t>
+  </si>
+  <si>
+    <t>Malpaso Verde 35°</t>
+  </si>
+  <si>
+    <t>Malpaso tropical</t>
+  </si>
+  <si>
+    <t>Malpaso manzana verde</t>
+  </si>
+  <si>
+    <t>Malpaso vainilla</t>
+  </si>
+  <si>
+    <t>Mistral</t>
+  </si>
+  <si>
+    <t>Mistral reservado</t>
+  </si>
+  <si>
+    <t>Mistral especial</t>
+  </si>
+  <si>
+    <t>Mistral clasico</t>
+  </si>
+  <si>
+    <t>Mistral barrica tostada</t>
+  </si>
+  <si>
+    <t>Capisco apple</t>
+  </si>
+  <si>
+    <t>Mistral fire</t>
+  </si>
+  <si>
+    <t>Mistral apple</t>
+  </si>
+  <si>
+    <t>Mistral cristalino</t>
+  </si>
+  <si>
+    <t>Mistral nobel honey + vaso</t>
+  </si>
+  <si>
+    <t>Campanario Sour</t>
+  </si>
+  <si>
+    <t>Andino Sour</t>
+  </si>
+  <si>
+    <t>Andino Sour mango</t>
+  </si>
+  <si>
+    <t>Sombrero Negro (blanco)</t>
+  </si>
+  <si>
+    <t>Sombrero Negro joven</t>
+  </si>
+  <si>
+    <t>Campanario piña colada</t>
+  </si>
+  <si>
+    <t>Campanario Mango colado</t>
+  </si>
+  <si>
+    <t>Campanario selccion creme</t>
+  </si>
+  <si>
+    <t>Carolans salted caramel</t>
+  </si>
+  <si>
+    <t>Carolans irish cream</t>
+  </si>
+  <si>
+    <t>Baileys original</t>
+  </si>
+  <si>
+    <t>Whiskey Blenders honey</t>
+  </si>
+  <si>
+    <t>Whiskey Blenders apple</t>
+  </si>
+  <si>
+    <t>Whiskey blenders pride</t>
+  </si>
+  <si>
+    <t>Ballantines</t>
+  </si>
+  <si>
+    <t>Jaggermeister</t>
+  </si>
+  <si>
+    <t>Buchanan's 12 años</t>
+  </si>
+  <si>
+    <t>Johnny Walker Red label</t>
+  </si>
+  <si>
+    <t>Jack Daniel's Honey</t>
+  </si>
+  <si>
+    <t>Jack Daniel's Fire</t>
+  </si>
+  <si>
+    <t>Old red + 1 vaso</t>
+  </si>
+  <si>
+    <t>Grant's</t>
+  </si>
+  <si>
+    <t>Amaretto</t>
+  </si>
+  <si>
+    <t>Fernet branca</t>
+  </si>
+  <si>
+    <t>Rossard fernet</t>
+  </si>
+  <si>
+    <t>Araucano</t>
   </si>
 </sst>
 </file>
@@ -51,12 +427,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -71,8 +453,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,10 +758,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -397,18 +783,1980 @@
         <v>3</v>
       </c>
     </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="B2" sqref="B2:B69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="true" style="0"/>
+    <col min="2" max="2" width="17.42578125" customWidth="true" style="0"/>
+    <col min="3" max="3" width="21" customWidth="true" style="0"/>
+    <col min="4" max="4" width="23.42578125" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="2">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="2">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="2">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="2">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="2">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="2">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="2">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="2">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="2">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="2">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="2">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="2">
+        <v>16</v>
+      </c>
+      <c r="D58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="2">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="2">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="2">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="2">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="2">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="2">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="2">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="2">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="2">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D63"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>1100</v>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
